--- a/biology/Mycologie/Astrothelium_corallinum/Astrothelium_corallinum.xlsx
+++ b/biology/Mycologie/Astrothelium_corallinum/Astrothelium_corallinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrothelium corallinum est une espèce de lichen crustacé corticole (vivant sur l'écorce) de la famille des Trypetheliaceae (en).
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trouvé au Guyana en 2016, il est formellement décrit comme une nouvelle espèce par André Aptroot (en). Le spécimen type a été collecté à Rain Mountain, au sud-est du village de Paruima, dans la région du Cuyuni-Mazaruni à une altitude de 500 m, poussant sur l'écorce lisse des arbres dans une forêt tropicale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trouvé au Guyana en 2016, il est formellement décrit comme une nouvelle espèce par André Aptroot (en). Le spécimen type a été collecté à Rain Mountain, au sud-est du village de Paruima, dans la région du Cuyuni-Mazaruni à une altitude de 500 m, poussant sur l'écorce lisse des arbres dans une forêt tropicale.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lichen a un thalle lisse, un peu brillant, qui couvre des surfaces allant jusqu'à 8 cm de diamètre. Le thalle est entouré d'une fine ligne noire de 0,3 mm formant le prothalle[1].
-Les parties blanchâtres des pseudostromates deviennent jaune fluorescent lorsqu'elles sont éclairées par une lumière UV de grande longueur d'onde grâce à la présence de lichexanthone (en), un produit du lichen (en). Le thalle, par contre, ne contient pas de lichexanthone, ce qui le distingue de l'espèce similaire A. ochroleucoides[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lichen a un thalle lisse, un peu brillant, qui couvre des surfaces allant jusqu'à 8 cm de diamètre. Le thalle est entouré d'une fine ligne noire de 0,3 mm formant le prothalle.
+Les parties blanchâtres des pseudostromates deviennent jaune fluorescent lorsqu'elles sont éclairées par une lumière UV de grande longueur d'onde grâce à la présence de lichexanthone (en), un produit du lichen (en). Le thalle, par contre, ne contient pas de lichexanthone, ce qui le distingue de l'espèce similaire A. ochroleucoides.
 </t>
         </is>
       </c>
